--- a/biology/Zoologie/Cyphophthalmus_bithynicus/Cyphophthalmus_bithynicus.xlsx
+++ b/biology/Zoologie/Cyphophthalmus_bithynicus/Cyphophthalmus_bithynicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyphophthalmus bithynicus est une espèce d'opilions cyphophthalmes de la famille des Sironidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Bursa en Turquie[1]. Elle se rencontre vers l'Uludağ[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Bursa en Turquie. Elle se rencontre vers l'Uludağ.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 1,71 mm, les mâles mesurent de 1,63 à 1,87 mm et les femelles de 1,76 à 2,03 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 1,71 mm, les mâles mesurent de 1,63 à 1,87 mm et les femelles de 1,76 à 2,03 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Siro duricorius bithynicus par Gruber en 1969. Elle suit son espèce dans le genre Cyphophthalmus en 2005[3]. Elle est élevée au rang d'espèce par Karaman en 2009[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Siro duricorius bithynicus par Gruber en 1969. Elle suit son espèce dans le genre Cyphophthalmus en 2005. Elle est élevée au rang d'espèce par Karaman en 2009.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, l'Olympe de Bithynie.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gruber, 1969 : « Türkiye'nin bazı Sironidae ve Trogulidae türler - Weberknechte der Familien Sironidae und Trogulidae aus der Türkei. (Opiliones, Arachnida). (Ergebnisse der österreichisch-türkischen Anatolien-Expeditionen 9). » Revue de la Faculté des Sciences de l'Université d'Istanbul, sér. B, vol. 34, no 1/2, p. 75–88.</t>
         </is>
